--- a/grupos/4APM - Estadisticos 20242.xlsx
+++ b/grupos/4APM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="79">
   <si>
     <t>Materia</t>
   </si>
@@ -224,6 +224,9 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>VIVANCO</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
@@ -240,6 +243,9 @@
   </si>
   <si>
     <t>GARCIA</t>
+  </si>
+  <si>
+    <t>LUIS AARON</t>
   </si>
   <si>
     <t>ESTRELLA ESMERALDA</t>
@@ -781,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -823,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="X4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y4">
         <v>7</v>
@@ -870,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -959,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1048,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1090,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="X7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y7">
         <v>8</v>
@@ -1137,7 +1143,7 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -1226,7 +1232,7 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1315,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1357,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="X10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y10">
         <v>7</v>
@@ -1404,7 +1410,7 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1446,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="X11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y11">
         <v>8</v>
@@ -1493,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1535,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="X12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -1582,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>8</v>
@@ -1624,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="X13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y13">
         <v>8</v>
@@ -1671,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -1713,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="X14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y14">
         <v>7</v>
@@ -1760,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -1849,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -1891,7 +1897,7 @@
         <v>9</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y16">
         <v>8</v>
@@ -1938,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -1980,7 +1986,7 @@
         <v>8</v>
       </c>
       <c r="X17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>7</v>
@@ -2027,7 +2033,7 @@
         <v>6</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -2116,7 +2122,7 @@
         <v>6</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2205,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -2294,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>7</v>
@@ -2336,7 +2342,7 @@
         <v>8</v>
       </c>
       <c r="X21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y21">
         <v>7</v>
@@ -2383,7 +2389,7 @@
         <v>8</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>7</v>
@@ -2425,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="X22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y22">
         <v>7</v>
@@ -2472,7 +2478,7 @@
         <v>7</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -2514,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="X23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y23">
         <v>8</v>
@@ -2561,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
         <v>7</v>
@@ -2650,7 +2656,7 @@
         <v>7</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
         <v>8</v>
@@ -2692,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="X25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y25">
         <v>8</v>
@@ -2739,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -2781,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="X26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y26">
         <v>8</v>
@@ -2828,7 +2834,7 @@
         <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -2870,7 +2876,7 @@
         <v>9</v>
       </c>
       <c r="X27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y27">
         <v>8</v>
@@ -2917,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -3006,7 +3012,7 @@
         <v>9</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -3095,7 +3101,7 @@
         <v>10</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>9</v>
@@ -3184,7 +3190,7 @@
         <v>9</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3226,7 +3232,7 @@
         <v>9</v>
       </c>
       <c r="X31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y31">
         <v>7</v>
@@ -3273,7 +3279,7 @@
         <v>8</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -3362,7 +3368,7 @@
         <v>6</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3404,7 +3410,7 @@
         <v>7</v>
       </c>
       <c r="X33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y33">
         <v>6</v>
@@ -3451,7 +3457,7 @@
         <v>8</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -5938,19 +5944,19 @@
         <v>31</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>96.8</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -6087,7 +6093,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6122,22 +6128,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920155</v>
+        <v>23330051920313</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -6145,22 +6151,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920164</v>
+        <v>23330051920313</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
         <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -6168,16 +6174,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920311</v>
+        <v>23330051920313</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -6186,6 +6192,98 @@
         <v>57</v>
       </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>23330051920313</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>23330051920155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>23330051920164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>23330051920311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
     </row>
